--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
@@ -537,52 +537,52 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.615597705580744</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H2">
-        <v>0.615597705580744</v>
+        <v>2.14066</v>
       </c>
       <c r="I2">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="J2">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N2">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q2">
-        <v>0.2596543562313267</v>
+        <v>1.492962168757778</v>
       </c>
       <c r="R2">
-        <v>0.2596543562313267</v>
+        <v>13.43665951882</v>
       </c>
       <c r="S2">
-        <v>0.004248536555939786</v>
+        <v>0.02005000991754841</v>
       </c>
       <c r="T2">
-        <v>0.004248536555939786</v>
+        <v>0.02005000991754841</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.615597705580744</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H3">
-        <v>0.615597705580744</v>
+        <v>2.14066</v>
       </c>
       <c r="I3">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="J3">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N3">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q3">
-        <v>1.518893577498523</v>
+        <v>1.761310311484445</v>
       </c>
       <c r="R3">
-        <v>1.518893577498523</v>
+        <v>15.85179280336</v>
       </c>
       <c r="S3">
-        <v>0.02485255777043686</v>
+        <v>0.02365384063450631</v>
       </c>
       <c r="T3">
-        <v>0.02485255777043686</v>
+        <v>0.02365384063450631</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.615597705580744</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H4">
-        <v>0.615597705580744</v>
+        <v>2.14066</v>
       </c>
       <c r="I4">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="J4">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N4">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q4">
-        <v>0.126080157627501</v>
+        <v>0.2254364723666667</v>
       </c>
       <c r="R4">
-        <v>0.126080157627501</v>
+        <v>2.0289282513</v>
       </c>
       <c r="S4">
-        <v>0.002062958490023835</v>
+        <v>0.003027540550802886</v>
       </c>
       <c r="T4">
-        <v>0.002062958490023835</v>
+        <v>0.003027540550802886</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.615597705580744</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H5">
-        <v>0.615597705580744</v>
+        <v>2.14066</v>
       </c>
       <c r="I5">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="J5">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N5">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q5">
-        <v>0.2491412673153457</v>
+        <v>0.3357741757044445</v>
       </c>
       <c r="R5">
-        <v>0.2491412673153457</v>
+        <v>3.02196758134</v>
       </c>
       <c r="S5">
-        <v>0.004076518480742935</v>
+        <v>0.004509341022708136</v>
       </c>
       <c r="T5">
-        <v>0.004076518480742935</v>
+        <v>0.004509341022708136</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.615597705580744</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H6">
-        <v>0.615597705580744</v>
+        <v>2.14066</v>
       </c>
       <c r="I6">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="J6">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N6">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q6">
-        <v>6.780070144867793</v>
+        <v>8.057291539586668</v>
       </c>
       <c r="R6">
-        <v>6.780070144867793</v>
+        <v>72.51562385628</v>
       </c>
       <c r="S6">
-        <v>0.1109373872265944</v>
+        <v>0.1082068780160107</v>
       </c>
       <c r="T6">
-        <v>0.1109373872265944</v>
+        <v>0.1082068780160107</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.615597705580744</v>
+        <v>0.7135533333333334</v>
       </c>
       <c r="H7">
-        <v>0.615597705580744</v>
+        <v>2.14066</v>
       </c>
       <c r="I7">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="J7">
-        <v>0.1483635900100715</v>
+        <v>0.1619590947855566</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N7">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q7">
-        <v>0.1335774634560847</v>
+        <v>0.1870099604088889</v>
       </c>
       <c r="R7">
-        <v>0.1335774634560847</v>
+        <v>1.68308964368</v>
       </c>
       <c r="S7">
-        <v>0.00218563148633367</v>
+        <v>0.002511484643980216</v>
       </c>
       <c r="T7">
-        <v>0.00218563148633367</v>
+        <v>0.002511484643980216</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.701757343425402</v>
+        <v>0.7746843333333334</v>
       </c>
       <c r="H8">
-        <v>0.701757343425402</v>
+        <v>2.324053</v>
       </c>
       <c r="I8">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="J8">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N8">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q8">
-        <v>0.2959958258223704</v>
+        <v>1.620866091386778</v>
       </c>
       <c r="R8">
-        <v>0.2959958258223704</v>
+        <v>14.587794822481</v>
       </c>
       <c r="S8">
-        <v>0.004843165755677032</v>
+        <v>0.02176771916087008</v>
       </c>
       <c r="T8">
-        <v>0.004843165755677032</v>
+        <v>0.02176771916087008</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.701757343425402</v>
+        <v>0.7746843333333334</v>
       </c>
       <c r="H9">
-        <v>0.701757343425402</v>
+        <v>2.324053</v>
       </c>
       <c r="I9">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="J9">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N9">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q9">
-        <v>1.731479360998791</v>
+        <v>1.912203952676445</v>
       </c>
       <c r="R9">
-        <v>1.731479360998791</v>
+        <v>17.209835574088</v>
       </c>
       <c r="S9">
-        <v>0.02833094529138162</v>
+        <v>0.02568029452979282</v>
       </c>
       <c r="T9">
-        <v>0.02833094529138162</v>
+        <v>0.02568029452979282</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.701757343425402</v>
+        <v>0.7746843333333334</v>
       </c>
       <c r="H10">
-        <v>0.701757343425402</v>
+        <v>2.324053</v>
       </c>
       <c r="I10">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="J10">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N10">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q10">
-        <v>0.143726455887068</v>
+        <v>0.2447498948516667</v>
       </c>
       <c r="R10">
-        <v>0.143726455887068</v>
+        <v>2.202749053665</v>
       </c>
       <c r="S10">
-        <v>0.002351692113911104</v>
+        <v>0.003286913708723058</v>
       </c>
       <c r="T10">
-        <v>0.002351692113911104</v>
+        <v>0.003286913708723058</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.701757343425402</v>
+        <v>0.7746843333333334</v>
       </c>
       <c r="H11">
-        <v>0.701757343425402</v>
+        <v>2.324053</v>
       </c>
       <c r="I11">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="J11">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N11">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q11">
-        <v>0.2840113150258042</v>
+        <v>0.3645403662274445</v>
       </c>
       <c r="R11">
-        <v>0.2840113150258042</v>
+        <v>3.280863296047</v>
       </c>
       <c r="S11">
-        <v>0.004647071867774359</v>
+        <v>0.004895661866829814</v>
       </c>
       <c r="T11">
-        <v>0.004647071867774359</v>
+        <v>0.004895661866829815</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.701757343425402</v>
+        <v>0.7746843333333334</v>
       </c>
       <c r="H12">
-        <v>0.701757343425402</v>
+        <v>2.324053</v>
       </c>
       <c r="I12">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="J12">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N12">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q12">
-        <v>7.729015183075973</v>
+        <v>8.747569709552668</v>
       </c>
       <c r="R12">
-        <v>7.729015183075973</v>
+        <v>78.72812738597401</v>
       </c>
       <c r="S12">
-        <v>0.1264642890006334</v>
+        <v>0.1174770956031054</v>
       </c>
       <c r="T12">
-        <v>0.1264642890006334</v>
+        <v>0.1174770956031054</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.701757343425402</v>
+        <v>0.7746843333333334</v>
       </c>
       <c r="H13">
-        <v>0.701757343425402</v>
+        <v>2.324053</v>
       </c>
       <c r="I13">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="J13">
-        <v>0.1691286985683334</v>
+        <v>0.1758343315209595</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N13">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q13">
-        <v>0.1522730917393755</v>
+        <v>0.2030313359048889</v>
       </c>
       <c r="R13">
-        <v>0.1522730917393755</v>
+        <v>1.827282023144</v>
       </c>
       <c r="S13">
-        <v>0.002491534538955901</v>
+        <v>0.002726646651638351</v>
       </c>
       <c r="T13">
-        <v>0.002491534538955901</v>
+        <v>0.002726646651638351</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.62720944757707</v>
+        <v>1.694543</v>
       </c>
       <c r="H14">
-        <v>1.62720944757707</v>
+        <v>5.083629</v>
       </c>
       <c r="I14">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="J14">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N14">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q14">
-        <v>0.6863443734988687</v>
+        <v>3.545479327403667</v>
       </c>
       <c r="R14">
-        <v>0.6863443734988687</v>
+        <v>31.90931394663301</v>
       </c>
       <c r="S14">
-        <v>0.01123015690203056</v>
+        <v>0.04761466644265634</v>
       </c>
       <c r="T14">
-        <v>0.01123015690203056</v>
+        <v>0.04761466644265634</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.62720944757707</v>
+        <v>1.694543</v>
       </c>
       <c r="H15">
-        <v>1.62720944757707</v>
+        <v>5.083629</v>
       </c>
       <c r="I15">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="J15">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N15">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q15">
-        <v>4.014891473382129</v>
+        <v>4.182751197042667</v>
       </c>
       <c r="R15">
-        <v>4.014891473382129</v>
+        <v>37.644760773384</v>
       </c>
       <c r="S15">
-        <v>0.06569276726325533</v>
+        <v>0.05617302617461656</v>
       </c>
       <c r="T15">
-        <v>0.06569276726325533</v>
+        <v>0.05617302617461656</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.62720944757707</v>
+        <v>1.694543</v>
       </c>
       <c r="H16">
-        <v>1.62720944757707</v>
+        <v>5.083629</v>
       </c>
       <c r="I16">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="J16">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N16">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q16">
-        <v>0.3332676872957684</v>
+        <v>0.535365442705</v>
       </c>
       <c r="R16">
-        <v>0.3332676872957684</v>
+        <v>4.818288984345</v>
       </c>
       <c r="S16">
-        <v>0.005453018285309079</v>
+        <v>0.007189788636559532</v>
       </c>
       <c r="T16">
-        <v>0.005453018285309079</v>
+        <v>0.007189788636559532</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.62720944757707</v>
+        <v>1.694543</v>
       </c>
       <c r="H17">
-        <v>1.62720944757707</v>
+        <v>5.083629</v>
       </c>
       <c r="I17">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="J17">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N17">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q17">
-        <v>0.6585551250136692</v>
+        <v>0.7973948861856668</v>
       </c>
       <c r="R17">
-        <v>0.6585551250136692</v>
+        <v>7.176553975671</v>
       </c>
       <c r="S17">
-        <v>0.01077546151480478</v>
+        <v>0.010708761220338</v>
       </c>
       <c r="T17">
-        <v>0.01077546151480478</v>
+        <v>0.010708761220338</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.62720944757707</v>
+        <v>1.694543</v>
       </c>
       <c r="H18">
-        <v>1.62720944757707</v>
+        <v>5.083629</v>
       </c>
       <c r="I18">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="J18">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N18">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q18">
-        <v>17.92175977094676</v>
+        <v>19.134416923798</v>
       </c>
       <c r="R18">
-        <v>17.92175977094676</v>
+        <v>172.209752314182</v>
       </c>
       <c r="S18">
-        <v>0.2932408014976801</v>
+        <v>0.2569691698269012</v>
       </c>
       <c r="T18">
-        <v>0.2932408014976801</v>
+        <v>0.2569691698269012</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.62720944757707</v>
+        <v>1.694543</v>
       </c>
       <c r="H19">
-        <v>1.62720944757707</v>
+        <v>5.083629</v>
       </c>
       <c r="I19">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="J19">
-        <v>0.3921694852859943</v>
+        <v>0.3846196738695563</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N19">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O19">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P19">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q19">
-        <v>0.3530853161872487</v>
+        <v>0.4441103482213334</v>
       </c>
       <c r="R19">
-        <v>0.3530853161872487</v>
+        <v>3.996993133992</v>
       </c>
       <c r="S19">
-        <v>0.00577727982291445</v>
+        <v>0.00596426156848472</v>
       </c>
       <c r="T19">
-        <v>0.00577727982291445</v>
+        <v>0.00596426156848472</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>26</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.20468604082259</v>
+        <v>1.222982</v>
       </c>
       <c r="H20">
-        <v>1.20468604082259</v>
+        <v>3.668946</v>
       </c>
       <c r="I20">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239275</v>
       </c>
       <c r="J20">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239276</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N20">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O20">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P20">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q20">
-        <v>0.5081272648597079</v>
+        <v>2.558835862404667</v>
       </c>
       <c r="R20">
-        <v>0.5081272648597079</v>
+        <v>23.029522761642</v>
       </c>
       <c r="S20">
-        <v>0.008314119166569616</v>
+        <v>0.03436435664091895</v>
       </c>
       <c r="T20">
-        <v>0.008314119166569616</v>
+        <v>0.03436435664091896</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.20468604082259</v>
+        <v>1.222982</v>
       </c>
       <c r="H21">
-        <v>1.20468604082259</v>
+        <v>3.668946</v>
       </c>
       <c r="I21">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239275</v>
       </c>
       <c r="J21">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239276</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N21">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P21">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q21">
-        <v>2.972379321299394</v>
+        <v>3.018766372090667</v>
       </c>
       <c r="R21">
-        <v>2.972379321299394</v>
+        <v>27.168897348816</v>
       </c>
       <c r="S21">
-        <v>0.04863489443408152</v>
+        <v>0.04054107797623601</v>
       </c>
       <c r="T21">
-        <v>0.04863489443408152</v>
+        <v>0.04054107797623602</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.20468604082259</v>
+        <v>1.222982</v>
       </c>
       <c r="H22">
-        <v>1.20468604082259</v>
+        <v>3.668946</v>
       </c>
       <c r="I22">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239275</v>
       </c>
       <c r="J22">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239276</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N22">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O22">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P22">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q22">
-        <v>0.2467309487050066</v>
+        <v>0.38638281817</v>
       </c>
       <c r="R22">
-        <v>0.2467309487050066</v>
+        <v>3.47744536353</v>
       </c>
       <c r="S22">
-        <v>0.004037080179471515</v>
+        <v>0.005188999090797252</v>
       </c>
       <c r="T22">
-        <v>0.004037080179471515</v>
+        <v>0.005188999090797253</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.20468604082259</v>
+        <v>1.222982</v>
       </c>
       <c r="H23">
-        <v>1.20468604082259</v>
+        <v>3.668946</v>
       </c>
       <c r="I23">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239275</v>
       </c>
       <c r="J23">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239276</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N23">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O23">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P23">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q23">
-        <v>0.4875538102347253</v>
+        <v>0.5754941554726667</v>
       </c>
       <c r="R23">
-        <v>0.4875538102347253</v>
+        <v>5.179447399254</v>
       </c>
       <c r="S23">
-        <v>0.007977490598788776</v>
+        <v>0.007728704562098101</v>
       </c>
       <c r="T23">
-        <v>0.007977490598788776</v>
+        <v>0.007728704562098104</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>27</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.20468604082259</v>
+        <v>1.222982</v>
       </c>
       <c r="H24">
-        <v>1.20468604082259</v>
+        <v>3.668946</v>
       </c>
       <c r="I24">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239275</v>
       </c>
       <c r="J24">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239276</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N24">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O24">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P24">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q24">
-        <v>13.26817138087741</v>
+        <v>13.809651025852</v>
       </c>
       <c r="R24">
-        <v>13.26817138087741</v>
+        <v>124.286859232668</v>
       </c>
       <c r="S24">
-        <v>0.2170974982291894</v>
+        <v>0.1854592472738922</v>
       </c>
       <c r="T24">
-        <v>0.2170974982291894</v>
+        <v>0.1854592472738923</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.20468604082259</v>
+        <v>1.222982</v>
       </c>
       <c r="H25">
-        <v>1.20468604082259</v>
+        <v>3.668946</v>
       </c>
       <c r="I25">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239275</v>
       </c>
       <c r="J25">
-        <v>0.2903382261356008</v>
+        <v>0.2775868998239276</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N25">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O25">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P25">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q25">
-        <v>0.2614027052654896</v>
+        <v>0.3205223838453334</v>
       </c>
       <c r="R25">
-        <v>0.2614027052654896</v>
+        <v>2.884701454608</v>
       </c>
       <c r="S25">
-        <v>0.004277143527499955</v>
+        <v>0.004304514279984974</v>
       </c>
       <c r="T25">
-        <v>0.004277143527499955</v>
+        <v>0.004304514279984975</v>
       </c>
     </row>
   </sheetData>
